--- a/pearson_tables/tp_netherlands_cumul-3-3.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-3.xlsx
@@ -457,11 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5384573976875711</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.6172094150759622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8100940249865883</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5735064102318919</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6927899068091616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8421658067926082</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5017525104715086</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5397394186844772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.546796222214201</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6328656279946353</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6257649649172017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7203849793857393</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.711825381792148</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6529739451200542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -535,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6122093456710344</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6539508272328531</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5672448192947198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5325645237770248</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.592305821123985</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6097727023728748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5806632869903993</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6174799323242897</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5912751459418306</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
